--- a/data/trans_dic/P20_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le preocupa el nivel de estrés de sus hijos</t>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,07%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,98%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>68,69%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>57,09%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,26; 70,43</t>
+          <t>36,16; 59,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,63; 68,6</t>
+          <t>40,64; 64,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,94; 76,77</t>
+          <t>60,67; 78,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,39; 64,58</t>
+          <t>54,51; 70,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,38; 72,76</t>
+          <t>51,42; 66,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,9; 64,34</t>
+          <t>50,49; 63,41</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>61,66%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>37,29%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,13; 66,8</t>
+          <t>31,44; 44,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,97; 56,8</t>
+          <t>29,93; 43,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,29; 70,09</t>
+          <t>40,18; 51,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,64; 58,66</t>
+          <t>33,84; 44,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,75; 67,28</t>
+          <t>37,56; 46,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,83; 56,53</t>
+          <t>33,66; 41,73</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,17%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>35,91%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,64; 63,55</t>
+          <t>30,8; 44,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,85; 56,37</t>
+          <t>27,41; 39,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,46; 65,07</t>
+          <t>35,92; 48,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,3; 66,3</t>
+          <t>33,7; 44,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,88; 62,47</t>
+          <t>35,15; 44,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,11; 59,33</t>
+          <t>31,93; 39,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>35,54%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,86; 64,34</t>
+          <t>35,73; 43,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,13; 56,52</t>
+          <t>24,49; 33,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,54; 68,83</t>
+          <t>44,02; 50,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,29; 59,99</t>
+          <t>37,97; 46,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,53; 65,94</t>
+          <t>40,78; 45,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,2; 57,56</t>
+          <t>32,42; 38,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39,34%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33,59%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48,01%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43,05%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43,76%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36,25; 42,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30,64; 37,08</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45,48; 50,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40,17; 45,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41,98; 45,8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36,4; 40,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>110046</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>166769</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>182606</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>255986</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>292652</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>422755</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>81890; 135845</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>135148; 214540</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>158770; 205285</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>222356; 288928</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>251020; 326783</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>373915; 469561</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>244347</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>330944</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>329485</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>378068</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>573832</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>709011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>204616; 288580</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>277974; 402410</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>287354; 371018</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>329146; 433330</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>513073; 634164</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>640085; 793568</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>172132</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>232491</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>225644</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>299999</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>397776</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>532490</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>140345; 204402</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>196173; 279051</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>191000; 258076</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>258495; 344857</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>347109; 438599</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>473498; 592836</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>446.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>779.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>829620</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>410456</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>989603</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>583244</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1819223</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>993700</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>755553; 915184</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>347568; 481539</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>919985; 1058570</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>522903; 645655</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1714380; 1929241</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>906675; 1082589</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>590.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1347.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>991.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1356146</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1140660</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1727338</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1517297</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3083483</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2657957</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1249606; 1449349</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1040619; 1259235</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1636587; 1815759</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1415871; 1611593</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2958077; 3226810</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2519271; 2802047</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>